--- a/biology/Histoire de la zoologie et de la botanique/Claude_Sionnest/Claude_Sionnest.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Sionnest/Claude_Sionnest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Sionnest, Claude Syonnest ou Claude Sionest, né en 1749 à Lyon et mort le 31 janvier 1820, est un naturaliste et malacologiste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille qui exerçait depuis 2 siècles le commerce de l'épicerie pharmaceutique (parents:  Claude Sionnest, marchand épicier droguiste et Ennemonde Poulet) , il se dirige très tôt vers les sciences naturelles. Après avoir servi 4 années dans l'infanterie, il fut nommé commandant de bataillon pendant la Terreur. Après le 9 thermidor an II (27 juillet 1794), il fut nommé à la Ville de Lyon et fut chargé de la police, avant de rendre ses fonctions pour s'adonner pleinement à ses passions.
 En l'an VI (1798), il est nommé physicien entomologiste au sein de la Société de santé.
